--- a/ClassScheduler/Writeups_Diagrams/UML Diagrams v.1.xlsx
+++ b/ClassScheduler/Writeups_Diagrams/UML Diagrams v.1.xlsx
@@ -427,22 +427,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDD0EBA-705B-4780-B075-45D109C3E44A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F55F81F-F412-4945-8BD3-4892024AA63A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,13 +458,190 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="6575" t="18333" r="6849" b="14445"/>
+        <a:srcRect l="6575" t="17260" r="7124" b="12690"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5029201" y="7153275"/>
-          <a:ext cx="3009899" cy="1152526"/>
+          <a:off x="5010150" y="7096126"/>
+          <a:ext cx="3000375" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B9175D-15D6-4440-ACBE-07150951B38D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="3901" t="8076" r="4065" b="5939"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1543051" y="8496301"/>
+          <a:ext cx="5391150" cy="3448050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B3F757-0DA6-47BF-9FDA-8B0B59284DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6648" t="22973" r="6925" b="16892"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10467976" y="962025"/>
+          <a:ext cx="2971800" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E11945B-0580-4BE6-A542-4D89544B7ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4979" t="11183" r="5395" b="8224"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10096500" y="1876425"/>
+          <a:ext cx="4114800" cy="2333625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -751,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AI48" sqref="AI48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
